--- a/inst/extdata/DSP_Proteogenomics_Example_Data/Annotation.xlsx
+++ b/inst/extdata/DSP_Proteogenomics_Example_Data/Annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\freya\NAS\mgriswold\GeomxTools_protein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hades\share\mgriswold\GeomxTools\inst\extdata\DSP_Proteogenomics_Example_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E774C-D38F-4221-8E1E-7EE2D169062C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EE39E5-F658-4497-B765-C30F36004D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5220" windowWidth="16440" windowHeight="28440" xr2:uid="{77CF1CAD-90E6-499F-9B90-388246D579DC}"/>
+    <workbookView xWindow="28680" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{77CF1CAD-90E6-499F-9B90-388246D579DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <t>Geometric</t>
   </si>
   <si>
-    <t>AOI.Size.um2</t>
-  </si>
-  <si>
-    <t>Nuclei.Counts</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -622,6 +616,12 @@
   </si>
   <si>
     <t>X_number</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>nuclei</t>
   </si>
 </sst>
 </file>
@@ -1006,9 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5576D-87B2-4FF0-A110-839FCDF9EC32}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1059,24 +1059,24 @@
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3">
         <v>1001900002618</v>
@@ -1088,7 +1088,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1112,7 +1112,7 @@
         <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N2">
         <v>117.89100000000001</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3">
         <v>1001900002618</v>
@@ -1135,7 +1135,7 @@
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1159,7 +1159,7 @@
         <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N3">
         <v>117.893</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3">
         <v>1001900002618</v>
@@ -1182,7 +1182,7 @@
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1206,7 +1206,7 @@
         <v>147</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>116.61</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>1001900002618</v>
@@ -1229,7 +1229,7 @@
         <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1253,7 +1253,7 @@
         <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>116.61</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3">
         <v>1001900002618</v>
@@ -1276,7 +1276,7 @@
         <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1300,7 +1300,7 @@
         <v>382</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>117.518</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3">
         <v>1001900002618</v>
@@ -1323,7 +1323,7 @@
         <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1347,7 +1347,7 @@
         <v>277</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>117.517</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3">
         <v>1001900002618</v>
@@ -1370,7 +1370,7 @@
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1394,7 +1394,7 @@
         <v>176</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>117.35299999999999</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3">
         <v>1001900002618</v>
@@ -1417,7 +1417,7 @@
         <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -1441,7 +1441,7 @@
         <v>285</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>117.35299999999999</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3">
         <v>1001900002618</v>
@@ -1464,7 +1464,7 @@
         <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -1488,7 +1488,7 @@
         <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N10">
         <v>117.059</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3">
         <v>1001900002618</v>
@@ -1511,7 +1511,7 @@
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -1535,7 +1535,7 @@
         <v>236</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>117.042</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3">
         <v>1001900002618</v>
@@ -1558,7 +1558,7 @@
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1582,7 +1582,7 @@
         <v>165</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>117.39700000000001</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3">
         <v>1001900002618</v>
@@ -1605,7 +1605,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -1629,7 +1629,7 @@
         <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>117.4</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3">
         <v>1001900002618</v>
@@ -1652,7 +1652,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1676,7 +1676,7 @@
         <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>117.631</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3">
         <v>1001900002618</v>
@@ -1699,7 +1699,7 @@
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1723,7 +1723,7 @@
         <v>281</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>117.652</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3">
         <v>1001900002618</v>
@@ -1746,7 +1746,7 @@
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -1770,7 +1770,7 @@
         <v>514</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>118.087</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="3">
         <v>1001900002618</v>
@@ -1793,7 +1793,7 @@
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -1817,7 +1817,7 @@
         <v>232</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>118.078</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="3">
         <v>1001900002618</v>
@@ -1840,7 +1840,7 @@
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -1864,7 +1864,7 @@
         <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>118.699</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3">
         <v>1001900002618</v>
@@ -1887,7 +1887,7 @@
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -1911,7 +1911,7 @@
         <v>260</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>118.694</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3">
         <v>1001900002618</v>
@@ -1934,7 +1934,7 @@
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1958,7 +1958,7 @@
         <v>94</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N20">
         <v>118.649</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3">
         <v>1001900002618</v>
@@ -1981,7 +1981,7 @@
         <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -2005,7 +2005,7 @@
         <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N21">
         <v>118.682</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3">
         <v>1001900002618</v>
@@ -2028,7 +2028,7 @@
         <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -2052,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>118.51600000000001</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3">
         <v>1001900002618</v>
@@ -2075,7 +2075,7 @@
         <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -2099,7 +2099,7 @@
         <v>269</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N23">
         <v>118.512</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>1001900002618</v>
@@ -2122,7 +2122,7 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N24">
         <v>118.502</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3">
         <v>1001900002618</v>
@@ -2169,7 +2169,7 @@
         <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>358</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N25">
         <v>118.541</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3">
         <v>1001900002618</v>
@@ -2216,7 +2216,7 @@
         <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -2240,7 +2240,7 @@
         <v>378</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N26">
         <v>118.14700000000001</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3">
         <v>1001900002618</v>
@@ -2263,7 +2263,7 @@
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -2287,7 +2287,7 @@
         <v>404</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N27">
         <v>116.90600000000001</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3">
         <v>1001900002618</v>
@@ -2310,7 +2310,7 @@
         <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -2334,7 +2334,7 @@
         <v>624</v>
       </c>
       <c r="M28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N28">
         <v>117.797</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3">
         <v>1001900002618</v>
@@ -2357,7 +2357,7 @@
         <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -2381,7 +2381,7 @@
         <v>489</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N29">
         <v>117.628</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3">
         <v>1001900002618</v>
@@ -2404,7 +2404,7 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -2428,7 +2428,7 @@
         <v>441</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N30">
         <v>117.295</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="3">
         <v>1001900002618</v>
@@ -2451,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -2475,7 +2475,7 @@
         <v>448</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N31">
         <v>117.64700000000001</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="3">
         <v>1001900002618</v>
@@ -2498,7 +2498,7 @@
         <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -2522,7 +2522,7 @@
         <v>421</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N32">
         <v>117.887</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3">
         <v>1001900002618</v>
@@ -2545,7 +2545,7 @@
         <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -2569,7 +2569,7 @@
         <v>568</v>
       </c>
       <c r="M33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N33">
         <v>118.30800000000001</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3">
         <v>1001900002618</v>
@@ -2592,7 +2592,7 @@
         <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -2616,7 +2616,7 @@
         <v>506</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N34">
         <v>118.916</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="3">
         <v>1001900002618</v>
@@ -2639,7 +2639,7 @@
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -2663,7 +2663,7 @@
         <v>512</v>
       </c>
       <c r="M35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N35">
         <v>118.925</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="3">
         <v>1001900002618</v>
@@ -2686,7 +2686,7 @@
         <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -2710,7 +2710,7 @@
         <v>532</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N36">
         <v>118.786</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3">
         <v>1001900002618</v>
@@ -2733,7 +2733,7 @@
         <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -2757,7 +2757,7 @@
         <v>404</v>
       </c>
       <c r="M37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N37">
         <v>118.83799999999999</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="3">
         <v>1001900002618</v>
@@ -2780,13 +2780,13 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
         <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2804,7 +2804,7 @@
         <v>1020</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N38">
         <v>82.980999999999995</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="3">
         <v>1001900002618</v>
@@ -2827,13 +2827,13 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
         <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>560</v>
       </c>
       <c r="M39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N39">
         <v>83.034999999999997</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" s="3">
         <v>1001900002618</v>
@@ -2874,13 +2874,13 @@
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
         <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -2898,7 +2898,7 @@
         <v>677</v>
       </c>
       <c r="M40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N40">
         <v>83.02</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3">
         <v>1001900002618</v>
@@ -2921,13 +2921,13 @@
         <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
         <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>1770</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N41">
         <v>82.558999999999997</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3">
         <v>1001900002618</v>
@@ -2968,13 +2968,13 @@
         <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -2992,7 +2992,7 @@
         <v>113</v>
       </c>
       <c r="M42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N42">
         <v>82.56</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B43" s="3">
         <v>1001900002618</v>
@@ -3015,13 +3015,13 @@
         <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
         <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>673</v>
       </c>
       <c r="M43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N43">
         <v>82.56</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B44" s="3">
         <v>1001900002618</v>
@@ -3062,13 +3062,13 @@
         <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
         <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -3086,7 +3086,7 @@
         <v>1829</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N44">
         <v>82.042000000000002</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B45" s="3">
         <v>1001900002618</v>
@@ -3109,13 +3109,13 @@
         <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
         <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -3133,7 +3133,7 @@
         <v>328</v>
       </c>
       <c r="M45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N45">
         <v>82.037999999999997</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" s="3">
         <v>1001900002618</v>
@@ -3156,13 +3156,13 @@
         <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
         <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -3180,7 +3180,7 @@
         <v>456</v>
       </c>
       <c r="M46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N46">
         <v>82.034000000000006</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3">
         <v>1001900002618</v>
@@ -3203,13 +3203,13 @@
         <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
         <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -3227,7 +3227,7 @@
         <v>808</v>
       </c>
       <c r="M47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N47">
         <v>81.742000000000004</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B48" s="3">
         <v>1001900002618</v>
@@ -3250,13 +3250,13 @@
         <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -3274,7 +3274,7 @@
         <v>1336</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N48">
         <v>81.744</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="3">
         <v>1001900002618</v>
@@ -3297,13 +3297,13 @@
         <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>94</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -3321,7 +3321,7 @@
         <v>349</v>
       </c>
       <c r="M49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N49">
         <v>81.728999999999999</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3">
         <v>1001900002618</v>
@@ -3344,13 +3344,13 @@
         <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
         <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -3368,7 +3368,7 @@
         <v>1092</v>
       </c>
       <c r="M50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N50">
         <v>81.256</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B51" s="3">
         <v>1001900002618</v>
@@ -3391,13 +3391,13 @@
         <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
         <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -3415,7 +3415,7 @@
         <v>1132</v>
       </c>
       <c r="M51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N51">
         <v>81.248000000000005</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="3">
         <v>1001900002618</v>
@@ -3438,13 +3438,13 @@
         <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
         <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -3462,7 +3462,7 @@
         <v>320</v>
       </c>
       <c r="M52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N52">
         <v>81.313999999999993</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B53" s="3">
         <v>1001900002618</v>
@@ -3485,13 +3485,13 @@
         <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
         <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53">
         <v>6</v>
@@ -3509,7 +3509,7 @@
         <v>450</v>
       </c>
       <c r="M53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N53">
         <v>80.978999999999999</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="3">
         <v>1001900002618</v>
@@ -3532,13 +3532,13 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -3556,7 +3556,7 @@
         <v>567</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N54">
         <v>80.977000000000004</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3">
         <v>1001900002618</v>
@@ -3579,13 +3579,13 @@
         <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
         <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -3603,7 +3603,7 @@
         <v>377</v>
       </c>
       <c r="M55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N55">
         <v>81.051000000000002</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3">
         <v>1001900002618</v>
@@ -3626,13 +3626,13 @@
         <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
         <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H56">
         <v>7</v>
@@ -3650,7 +3650,7 @@
         <v>619</v>
       </c>
       <c r="M56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N56">
         <v>80.447000000000003</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B57" s="3">
         <v>1001900002618</v>
@@ -3673,13 +3673,13 @@
         <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
         <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>7</v>
@@ -3697,7 +3697,7 @@
         <v>536</v>
       </c>
       <c r="M57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N57">
         <v>80.491</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3">
         <v>1001900002618</v>
@@ -3720,13 +3720,13 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
         <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H58">
         <v>7</v>
@@ -3744,7 +3744,7 @@
         <v>761</v>
       </c>
       <c r="M58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N58">
         <v>80.456999999999994</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="3">
         <v>1001900002618</v>
@@ -3767,13 +3767,13 @@
         <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
         <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59">
         <v>8</v>
@@ -3791,7 +3791,7 @@
         <v>1640</v>
       </c>
       <c r="M59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N59">
         <v>80.037999999999997</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="3">
         <v>1001900002618</v>
@@ -3814,13 +3814,13 @@
         <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
         <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H60">
         <v>8</v>
@@ -3838,7 +3838,7 @@
         <v>153</v>
       </c>
       <c r="M60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N60">
         <v>80.039000000000001</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61" s="3">
         <v>1001900002618</v>
@@ -3861,13 +3861,13 @@
         <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
         <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H61">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         <v>383</v>
       </c>
       <c r="M61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N61">
         <v>80.037999999999997</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" s="3">
         <v>1001900002618</v>
@@ -3908,13 +3908,13 @@
         <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
         <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H62">
         <v>9</v>
@@ -3932,7 +3932,7 @@
         <v>1042</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N62">
         <v>79.528000000000006</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B63" s="3">
         <v>1001900002618</v>
@@ -3955,13 +3955,13 @@
         <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H63">
         <v>9</v>
@@ -3979,7 +3979,7 @@
         <v>347</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N63">
         <v>79.527000000000001</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B64" s="3">
         <v>1001900002618</v>
@@ -4002,13 +4002,13 @@
         <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
         <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H64">
         <v>9</v>
@@ -4026,7 +4026,7 @@
         <v>893</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N64">
         <v>79.525999999999996</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B65" s="3">
         <v>1001900002618</v>
@@ -4049,13 +4049,13 @@
         <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
         <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H65">
         <v>10</v>
@@ -4073,7 +4073,7 @@
         <v>1234</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N65">
         <v>79.176000000000002</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B66" s="3">
         <v>1001900002618</v>
@@ -4096,13 +4096,13 @@
         <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
         <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H66">
         <v>10</v>
@@ -4120,7 +4120,7 @@
         <v>637</v>
       </c>
       <c r="M66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N66">
         <v>79.179000000000002</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B67" s="3">
         <v>1001900002618</v>
@@ -4143,13 +4143,13 @@
         <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
         <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H67">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         <v>450</v>
       </c>
       <c r="M67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N67">
         <v>79.106999999999999</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="3">
         <v>1001900002618</v>
@@ -4190,13 +4190,13 @@
         <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
         <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H68">
         <v>11</v>
@@ -4214,7 +4214,7 @@
         <v>1015</v>
       </c>
       <c r="M68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N68">
         <v>78.822999999999993</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B69" s="3">
         <v>1001900002618</v>
@@ -4237,13 +4237,13 @@
         <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
         <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H69">
         <v>11</v>
@@ -4261,7 +4261,7 @@
         <v>513</v>
       </c>
       <c r="M69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N69">
         <v>78.781000000000006</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="3">
         <v>1001900002618</v>
@@ -4284,13 +4284,13 @@
         <v>95</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
         <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H70">
         <v>11</v>
@@ -4308,7 +4308,7 @@
         <v>885</v>
       </c>
       <c r="M70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N70">
         <v>78.763000000000005</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" s="3">
         <v>1001900002618</v>
@@ -4331,13 +4331,13 @@
         <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
         <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H71">
         <v>12</v>
@@ -4355,7 +4355,7 @@
         <v>743</v>
       </c>
       <c r="M71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N71">
         <v>78.968000000000004</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" s="3">
         <v>1001900002618</v>
@@ -4378,13 +4378,13 @@
         <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
         <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H72">
         <v>12</v>
@@ -4402,7 +4402,7 @@
         <v>186</v>
       </c>
       <c r="M72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N72">
         <v>78.971999999999994</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3">
         <v>1001900002618</v>
@@ -4425,13 +4425,13 @@
         <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
         <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H73">
         <v>12</v>
@@ -4449,7 +4449,7 @@
         <v>782</v>
       </c>
       <c r="M73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N73">
         <v>78.966999999999999</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" s="3">
         <v>1001900002618</v>
@@ -4472,7 +4472,7 @@
         <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
         <v>94</v>
@@ -4496,7 +4496,7 @@
         <v>2870</v>
       </c>
       <c r="M74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N74">
         <v>82.599000000000004</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" s="3">
         <v>1001900002618</v>
@@ -4519,7 +4519,7 @@
         <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
         <v>94</v>
@@ -4543,7 +4543,7 @@
         <v>2912</v>
       </c>
       <c r="M75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N75">
         <v>82.103999999999999</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="3">
         <v>1001900002618</v>
@@ -4566,7 +4566,7 @@
         <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
         <v>94</v>
@@ -4590,7 +4590,7 @@
         <v>2992</v>
       </c>
       <c r="M76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N76">
         <v>81.569000000000003</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B77" s="3">
         <v>1001900002618</v>
@@ -4613,7 +4613,7 @@
         <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
         <v>94</v>
@@ -4637,7 +4637,7 @@
         <v>2911</v>
       </c>
       <c r="M77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N77">
         <v>81.238</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="3">
         <v>1001900002618</v>
@@ -4660,7 +4660,7 @@
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
         <v>94</v>
@@ -4684,7 +4684,7 @@
         <v>3079</v>
       </c>
       <c r="M78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N78">
         <v>80.741</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B79" s="3">
         <v>1001900002618</v>
@@ -4707,7 +4707,7 @@
         <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
         <v>94</v>
@@ -4731,7 +4731,7 @@
         <v>2093</v>
       </c>
       <c r="M79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N79">
         <v>80.522999999999996</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B80" s="3">
         <v>1001900002618</v>
@@ -4754,7 +4754,7 @@
         <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
         <v>94</v>
@@ -4778,7 +4778,7 @@
         <v>2718</v>
       </c>
       <c r="M80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N80">
         <v>80.001000000000005</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B81" s="3">
         <v>1001900002618</v>
@@ -4801,7 +4801,7 @@
         <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
         <v>94</v>
@@ -4825,7 +4825,7 @@
         <v>2781</v>
       </c>
       <c r="M81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N81">
         <v>79.492000000000004</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3">
         <v>1001900002618</v>
@@ -4848,7 +4848,7 @@
         <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F82" t="s">
         <v>94</v>
@@ -4872,7 +4872,7 @@
         <v>2997</v>
       </c>
       <c r="M82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N82">
         <v>78.974000000000004</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83" s="3">
         <v>1001900002618</v>
@@ -4895,7 +4895,7 @@
         <v>95</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
         <v>94</v>
@@ -4919,7 +4919,7 @@
         <v>3162</v>
       </c>
       <c r="M83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N83">
         <v>78.555999999999997</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="3">
         <v>1001900002618</v>
@@ -4942,7 +4942,7 @@
         <v>95</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
         <v>94</v>
@@ -4966,7 +4966,7 @@
         <v>2633</v>
       </c>
       <c r="M84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N84">
         <v>78.16</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3">
         <v>1001900002618</v>
@@ -4989,7 +4989,7 @@
         <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
         <v>94</v>
@@ -5013,7 +5013,7 @@
         <v>2247</v>
       </c>
       <c r="M85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N85">
         <v>78.349000000000004</v>
